--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -48,6 +48,54 @@
   </si>
   <si>
     <t>Lille</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpelier</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lyon</t>
   </si>
   <si>
     <t>Gols Marcados</t>
@@ -411,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,6 +552,470 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -511,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -531,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -549,6 +1061,142 @@
       </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1016,6 +1016,528 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1023,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1199,6 +1721,159 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1538,6 +1538,528 @@
         <v>11</v>
       </c>
     </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1545,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1874,6 +2396,159 @@
         <v>23</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1016,6 +1016,1050 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1023,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1199,6 +2243,312 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2060,6 +2060,7372 @@
         <v>7</v>
       </c>
     </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>9</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>10</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>9</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>9</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>6</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>6</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>6</v>
+      </c>
+      <c r="I123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>8</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>6</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>11</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>10</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>5</v>
+      </c>
+      <c r="I133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>5</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>5</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="I140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>5</v>
+      </c>
+      <c r="I141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>7</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>6</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>4</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>6</v>
+      </c>
+      <c r="I152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>16</v>
+      </c>
+      <c r="I153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>4</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>5</v>
+      </c>
+      <c r="I156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>7</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>3</v>
+      </c>
+      <c r="I158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>5</v>
+      </c>
+      <c r="I159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>10</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>26</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>10</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>4</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>4</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>4</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>9</v>
+      </c>
+      <c r="I170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>5</v>
+      </c>
+      <c r="I171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>8</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>5</v>
+      </c>
+      <c r="I174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>6</v>
+      </c>
+      <c r="I175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>4</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>7</v>
+      </c>
+      <c r="I178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>5</v>
+      </c>
+      <c r="I179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>3</v>
+      </c>
+      <c r="I181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>3</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>9</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>5</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>8</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>4</v>
+      </c>
+      <c r="I188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>9</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>10</v>
+      </c>
+      <c r="I190">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>6</v>
+      </c>
+      <c r="I191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>4</v>
+      </c>
+      <c r="I192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
+      <c r="I193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+      <c r="I194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>6</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>6</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>7</v>
+      </c>
+      <c r="I201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+      <c r="H202">
+        <v>8</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+      <c r="I207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>11</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211">
+        <v>5</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>6</v>
+      </c>
+      <c r="I212">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>9</v>
+      </c>
+      <c r="I213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>4</v>
+      </c>
+      <c r="I214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>5</v>
+      </c>
+      <c r="I215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>6</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>25</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>5</v>
+      </c>
+      <c r="G218">
+        <v>2</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>5</v>
+      </c>
+      <c r="H219">
+        <v>10</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>17</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>3</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>25</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>7</v>
+      </c>
+      <c r="I222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>11</v>
+      </c>
+      <c r="I223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>4</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226">
+        <v>5</v>
+      </c>
+      <c r="I226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>3</v>
+      </c>
+      <c r="G227">
+        <v>2</v>
+      </c>
+      <c r="H227">
+        <v>6</v>
+      </c>
+      <c r="I227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228">
+        <v>9</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>3</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>10</v>
+      </c>
+      <c r="I230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>5</v>
+      </c>
+      <c r="I231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+      <c r="H233">
+        <v>8</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>26</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>5</v>
+      </c>
+      <c r="I235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
+      </c>
+      <c r="I236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>5</v>
+      </c>
+      <c r="I237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+      <c r="H239">
+        <v>6</v>
+      </c>
+      <c r="I239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>5</v>
+      </c>
+      <c r="I240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>6</v>
+      </c>
+      <c r="I241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>2</v>
+      </c>
+      <c r="H242">
+        <v>9</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>18</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>8</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>2</v>
+      </c>
+      <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>4</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+      <c r="I248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>4</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>6</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>2</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>2</v>
+      </c>
+      <c r="H253">
+        <v>6</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>19</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>3</v>
+      </c>
+      <c r="I255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>2</v>
+      </c>
+      <c r="H256">
+        <v>5</v>
+      </c>
+      <c r="I256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>18</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>5</v>
+      </c>
+      <c r="I257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>5</v>
+      </c>
+      <c r="I258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>2</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+      <c r="I259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>9</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>2</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
+      </c>
+      <c r="I262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>5</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>3</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>2</v>
+      </c>
+      <c r="I265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>25</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>4</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>26</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>3</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>3</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <v>4</v>
+      </c>
+      <c r="H270">
+        <v>4</v>
+      </c>
+      <c r="I270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271">
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>6</v>
+      </c>
+      <c r="I271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>6</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>26</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>3</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+      <c r="I274">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>3</v>
+      </c>
+      <c r="H275">
+        <v>9</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+      <c r="I276">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>2</v>
+      </c>
+      <c r="H277">
+        <v>7</v>
+      </c>
+      <c r="I277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>21</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>2</v>
+      </c>
+      <c r="H278">
+        <v>4</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>3</v>
+      </c>
+      <c r="I279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>14</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>2</v>
+      </c>
+      <c r="H280">
+        <v>6</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>12</v>
+      </c>
+      <c r="I282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>19</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>5</v>
+      </c>
+      <c r="I283">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>4</v>
+      </c>
+      <c r="I284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>4</v>
+      </c>
+      <c r="I285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>4</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>2</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>8</v>
+      </c>
+      <c r="I288">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>8</v>
+      </c>
+      <c r="I289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>17</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>3</v>
+      </c>
+      <c r="H290">
+        <v>4</v>
+      </c>
+      <c r="I290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>23</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>3</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>5</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" t="s">
+        <v>19</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>5</v>
+      </c>
+      <c r="I292">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>10</v>
+      </c>
+      <c r="I293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>5</v>
+      </c>
+      <c r="I294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>16</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>2</v>
+      </c>
+      <c r="H295">
+        <v>6</v>
+      </c>
+      <c r="I295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" t="s">
+        <v>26</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>7</v>
+      </c>
+      <c r="I296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" t="s">
+        <v>21</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>7</v>
+      </c>
+      <c r="I297">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>3</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>5</v>
+      </c>
+      <c r="I298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" t="s">
+        <v>24</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>3</v>
+      </c>
+      <c r="H299">
+        <v>5</v>
+      </c>
+      <c r="I299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>2</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>6</v>
+      </c>
+      <c r="I300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>2</v>
+      </c>
+      <c r="H301">
+        <v>5</v>
+      </c>
+      <c r="I301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>4</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>4</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" t="s">
+        <v>12</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>6</v>
+      </c>
+      <c r="I304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>2</v>
+      </c>
+      <c r="H306">
+        <v>4</v>
+      </c>
+      <c r="I306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" t="s">
+        <v>18</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>2</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>5</v>
+      </c>
+      <c r="I307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>6</v>
+      </c>
+      <c r="I308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" t="s">
+        <v>25</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>4</v>
+      </c>
+      <c r="I309">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2067,7 +9433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2549,6 +9915,2165 @@
         <v>26</v>
       </c>
     </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9426,6 +9426,122 @@
         <v>6</v>
       </c>
     </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>3</v>
+      </c>
+      <c r="H310">
+        <v>6</v>
+      </c>
+      <c r="I310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>3</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>6</v>
+      </c>
+      <c r="I311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>2</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>6</v>
+      </c>
+      <c r="I312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>2</v>
+      </c>
+      <c r="H313">
+        <v>6</v>
+      </c>
+      <c r="I313">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9433,7 +9549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12074,6 +12190,40 @@
         <v>25</v>
       </c>
     </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9542,6 +9542,354 @@
         <v>6</v>
       </c>
     </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>3</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>7</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>3</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>24</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>5</v>
+      </c>
+      <c r="I316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>22</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>3</v>
+      </c>
+      <c r="I317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>21</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="G318">
+        <v>2</v>
+      </c>
+      <c r="H318">
+        <v>11</v>
+      </c>
+      <c r="I318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>2</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>5</v>
+      </c>
+      <c r="I319">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>2</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>2</v>
+      </c>
+      <c r="H321">
+        <v>3</v>
+      </c>
+      <c r="I321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>20</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>3</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>3</v>
+      </c>
+      <c r="I322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>26</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>3</v>
+      </c>
+      <c r="H323">
+        <v>7</v>
+      </c>
+      <c r="I323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>2</v>
+      </c>
+      <c r="H324">
+        <v>5</v>
+      </c>
+      <c r="I324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>6</v>
+      </c>
+      <c r="I325">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9549,7 +9897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12224,6 +12572,108 @@
         <v>9</v>
       </c>
     </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9890,6 +9890,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>26</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>2</v>
+      </c>
+      <c r="G326">
+        <v>3</v>
+      </c>
+      <c r="H326">
+        <v>3</v>
+      </c>
+      <c r="I326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>23</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>3</v>
+      </c>
+      <c r="G327">
+        <v>2</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9897,7 +9955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12674,6 +12732,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9948,6 +9948,122 @@
         <v>3</v>
       </c>
     </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>5</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>2</v>
+      </c>
+      <c r="G330">
+        <v>2</v>
+      </c>
+      <c r="H330">
+        <v>10</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>18</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>2</v>
+      </c>
+      <c r="G331">
+        <v>2</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9955,7 +10071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12749,6 +12865,40 @@
         <v>23</v>
       </c>
     </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10064,6 +10064,354 @@
         <v>10</v>
       </c>
     </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>5</v>
+      </c>
+      <c r="I332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>2</v>
+      </c>
+      <c r="I333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>14</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>3</v>
+      </c>
+      <c r="G334">
+        <v>3</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>20</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>3</v>
+      </c>
+      <c r="G335">
+        <v>3</v>
+      </c>
+      <c r="H335">
+        <v>4</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>17</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>5</v>
+      </c>
+      <c r="I336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>2</v>
+      </c>
+      <c r="I337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>6</v>
+      </c>
+      <c r="I338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>21</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>2</v>
+      </c>
+      <c r="I339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>22</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>2</v>
+      </c>
+      <c r="H340">
+        <v>10</v>
+      </c>
+      <c r="I340">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>16</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>2</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>7</v>
+      </c>
+      <c r="I341">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>2</v>
+      </c>
+      <c r="G342">
+        <v>2</v>
+      </c>
+      <c r="H342">
+        <v>7</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>2</v>
+      </c>
+      <c r="G343">
+        <v>2</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10071,7 +10419,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12899,6 +13247,108 @@
         <v>18</v>
       </c>
     </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10412,6 +10412,64 @@
         <v>7</v>
       </c>
     </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>25</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>2</v>
+      </c>
+      <c r="H344">
+        <v>3</v>
+      </c>
+      <c r="I344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>13</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>2</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>4</v>
+      </c>
+      <c r="I345">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10419,7 +10477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13349,6 +13407,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10470,6 +10470,122 @@
         <v>3</v>
       </c>
     </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>2</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>5</v>
+      </c>
+      <c r="I346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>19</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>2</v>
+      </c>
+      <c r="H347">
+        <v>3</v>
+      </c>
+      <c r="I347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>16</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>3</v>
+      </c>
+      <c r="I349">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10477,7 +10593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13424,6 +13540,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>21</v>
+      </c>
+      <c r="E175" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10586,6 +10586,354 @@
         <v>2</v>
       </c>
     </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>9</v>
+      </c>
+      <c r="I350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>20</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>4</v>
+      </c>
+      <c r="I351">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>24</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>2</v>
+      </c>
+      <c r="H352">
+        <v>4</v>
+      </c>
+      <c r="I352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>14</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>2</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>3</v>
+      </c>
+      <c r="I353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>2</v>
+      </c>
+      <c r="G354">
+        <v>3</v>
+      </c>
+      <c r="H354">
+        <v>10</v>
+      </c>
+      <c r="I354">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>22</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>3</v>
+      </c>
+      <c r="G355">
+        <v>2</v>
+      </c>
+      <c r="H355">
+        <v>6</v>
+      </c>
+      <c r="I355">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>4</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>12</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>17</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>4</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>15</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>3</v>
+      </c>
+      <c r="I358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>5</v>
+      </c>
+      <c r="I359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>26</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>3</v>
+      </c>
+      <c r="I360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>2</v>
+      </c>
+      <c r="I361">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10593,7 +10941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13574,6 +13922,108 @@
         <v>16</v>
       </c>
     </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10934,6 +10934,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>11</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>6</v>
+      </c>
+      <c r="I362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>3</v>
+      </c>
+      <c r="I363">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10941,7 +10999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14024,6 +14082,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I363"/>
+  <dimension ref="A1:I367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10992,6 +10992,122 @@
         <v>6</v>
       </c>
     </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>16</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>3</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>4</v>
+      </c>
+      <c r="I364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>3</v>
+      </c>
+      <c r="H365">
+        <v>5</v>
+      </c>
+      <c r="I365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>13</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>3</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>6</v>
+      </c>
+      <c r="I366">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>3</v>
+      </c>
+      <c r="H367">
+        <v>8</v>
+      </c>
+      <c r="I367">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10999,7 +11115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14099,6 +14215,40 @@
         <v>24</v>
       </c>
     </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>14</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I367"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11108,6 +11108,354 @@
         <v>6</v>
       </c>
     </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>20</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>5</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>23</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>17</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>2</v>
+      </c>
+      <c r="I370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371">
+        <v>1</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="H371">
+        <v>4</v>
+      </c>
+      <c r="I371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>14</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>12</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>2</v>
+      </c>
+      <c r="H373">
+        <v>7</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>22</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>1</v>
+      </c>
+      <c r="G374">
+        <v>2</v>
+      </c>
+      <c r="H374">
+        <v>12</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>21</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>2</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>2</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+      <c r="I376">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>26</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>2</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+      <c r="H377">
+        <v>5</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378">
+        <v>2</v>
+      </c>
+      <c r="G378">
+        <v>3</v>
+      </c>
+      <c r="H378">
+        <v>8</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>3</v>
+      </c>
+      <c r="G379">
+        <v>2</v>
+      </c>
+      <c r="H379">
+        <v>2</v>
+      </c>
+      <c r="I379">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11115,7 +11463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14249,6 +14597,108 @@
         <v>10</v>
       </c>
     </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11456,6 +11456,64 @@
         <v>8</v>
       </c>
     </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>26</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>4</v>
+      </c>
+      <c r="I380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+      <c r="H381">
+        <v>3</v>
+      </c>
+      <c r="I381">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11463,7 +11521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14699,6 +14757,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11514,6 +11514,122 @@
         <v>4</v>
       </c>
     </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>3</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+      <c r="I382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>20</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>3</v>
+      </c>
+      <c r="H383">
+        <v>3</v>
+      </c>
+      <c r="I383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>21</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>2</v>
+      </c>
+      <c r="H384">
+        <v>3</v>
+      </c>
+      <c r="I384">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>2</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>8</v>
+      </c>
+      <c r="I385">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11521,7 +11637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14774,6 +14890,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11630,6 +11630,354 @@
         <v>3</v>
       </c>
     </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>25</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>3</v>
+      </c>
+      <c r="H386">
+        <v>9</v>
+      </c>
+      <c r="I386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>14</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>3</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>4</v>
+      </c>
+      <c r="I387">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>2</v>
+      </c>
+      <c r="H388">
+        <v>4</v>
+      </c>
+      <c r="I388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>22</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>2</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="H389">
+        <v>6</v>
+      </c>
+      <c r="I389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>19</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>3</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>7</v>
+      </c>
+      <c r="I390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>24</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>3</v>
+      </c>
+      <c r="H391">
+        <v>4</v>
+      </c>
+      <c r="I391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>23</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>3</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>4</v>
+      </c>
+      <c r="I392">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>17</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+      <c r="G393">
+        <v>3</v>
+      </c>
+      <c r="H393">
+        <v>4</v>
+      </c>
+      <c r="I393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>3</v>
+      </c>
+      <c r="I394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>16</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>2</v>
+      </c>
+      <c r="I395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>15</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>1</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>6</v>
+      </c>
+      <c r="I396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>4</v>
+      </c>
+      <c r="I397">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11637,7 +11985,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14924,6 +15272,108 @@
         <v>13</v>
       </c>
     </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>25</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11978,6 +11978,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>24</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+      <c r="G398">
+        <v>2</v>
+      </c>
+      <c r="H398">
+        <v>4</v>
+      </c>
+      <c r="I398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>26</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399">
+        <v>2</v>
+      </c>
+      <c r="G399">
+        <v>1</v>
+      </c>
+      <c r="H399">
+        <v>3</v>
+      </c>
+      <c r="I399">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11985,7 +12043,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15374,6 +15432,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>24</v>
+      </c>
+      <c r="E200" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:I403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12036,6 +12036,122 @@
         <v>4</v>
       </c>
     </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>14</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>3</v>
+      </c>
+      <c r="I400">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>21</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>8</v>
+      </c>
+      <c r="I401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>25</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>3</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>15</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>3</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>4</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12043,7 +12159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15449,6 +15565,40 @@
         <v>26</v>
       </c>
     </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I403"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12152,6 +12152,412 @@
         <v>0</v>
       </c>
     </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>16</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404">
+        <v>2</v>
+      </c>
+      <c r="G404">
+        <v>3</v>
+      </c>
+      <c r="H404">
+        <v>9</v>
+      </c>
+      <c r="I404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>3</v>
+      </c>
+      <c r="G405">
+        <v>2</v>
+      </c>
+      <c r="H405">
+        <v>3</v>
+      </c>
+      <c r="I405">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>20</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
+      <c r="G406">
+        <v>2</v>
+      </c>
+      <c r="H406">
+        <v>5</v>
+      </c>
+      <c r="I406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>2</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407">
+        <v>5</v>
+      </c>
+      <c r="I407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>8</v>
+      </c>
+      <c r="I408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>17</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>1</v>
+      </c>
+      <c r="I409">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>22</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>3</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410">
+        <v>6</v>
+      </c>
+      <c r="I410">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>10</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+      <c r="G411">
+        <v>3</v>
+      </c>
+      <c r="H411">
+        <v>8</v>
+      </c>
+      <c r="I411">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>13</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+      <c r="H412">
+        <v>4</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>1</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>4</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414">
+        <v>7</v>
+      </c>
+      <c r="I414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>19</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+      <c r="G415">
+        <v>4</v>
+      </c>
+      <c r="H415">
+        <v>4</v>
+      </c>
+      <c r="I415">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>18</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>5</v>
+      </c>
+      <c r="I416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>13</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>6</v>
+      </c>
+      <c r="I417">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12159,7 +12565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15599,6 +16005,125 @@
         <v>15</v>
       </c>
     </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>14</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12558,6 +12558,122 @@
         <v>5</v>
       </c>
     </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>12</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>1</v>
+      </c>
+      <c r="H418">
+        <v>4</v>
+      </c>
+      <c r="I418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>1</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>4</v>
+      </c>
+      <c r="I419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>17</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>5</v>
+      </c>
+      <c r="H420">
+        <v>7</v>
+      </c>
+      <c r="I420">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>11</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421">
+        <v>5</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>4</v>
+      </c>
+      <c r="I421">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12565,7 +12681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16124,6 +16240,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>6</v>
+      </c>
+      <c r="C211">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12674,6 +12674,470 @@
         <v>7</v>
       </c>
     </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>22</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>2</v>
+      </c>
+      <c r="G422">
+        <v>1</v>
+      </c>
+      <c r="H422">
+        <v>7</v>
+      </c>
+      <c r="I422">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>9</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423">
+        <v>1</v>
+      </c>
+      <c r="G423">
+        <v>2</v>
+      </c>
+      <c r="H423">
+        <v>6</v>
+      </c>
+      <c r="I423">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>19</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424">
+        <v>2</v>
+      </c>
+      <c r="G424">
+        <v>2</v>
+      </c>
+      <c r="H424">
+        <v>8</v>
+      </c>
+      <c r="I424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>25</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+      <c r="F425">
+        <v>2</v>
+      </c>
+      <c r="G425">
+        <v>2</v>
+      </c>
+      <c r="H425">
+        <v>4</v>
+      </c>
+      <c r="I425">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>21</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>2</v>
+      </c>
+      <c r="H426">
+        <v>10</v>
+      </c>
+      <c r="I426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>24</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>2</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>3</v>
+      </c>
+      <c r="I427">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>15</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>20</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>1</v>
+      </c>
+      <c r="H429">
+        <v>2</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>23</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430">
+        <v>1</v>
+      </c>
+      <c r="G430">
+        <v>2</v>
+      </c>
+      <c r="H430">
+        <v>6</v>
+      </c>
+      <c r="I430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="s">
+        <v>14</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>2</v>
+      </c>
+      <c r="G431">
+        <v>1</v>
+      </c>
+      <c r="H431">
+        <v>3</v>
+      </c>
+      <c r="I431">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" t="s">
+        <v>23</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>2</v>
+      </c>
+      <c r="H432">
+        <v>6</v>
+      </c>
+      <c r="I432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433" t="s">
+        <v>14</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>2</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>3</v>
+      </c>
+      <c r="I433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" t="s">
+        <v>26</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>3</v>
+      </c>
+      <c r="H434">
+        <v>2</v>
+      </c>
+      <c r="I434">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435" t="s">
+        <v>16</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>3</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>4</v>
+      </c>
+      <c r="I435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436" t="s">
+        <v>9</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+      <c r="G436">
+        <v>2</v>
+      </c>
+      <c r="H436">
+        <v>8</v>
+      </c>
+      <c r="I436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" t="s">
+        <v>19</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437">
+        <v>2</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>5</v>
+      </c>
+      <c r="I437">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12681,7 +13145,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16274,6 +16738,142 @@
         <v>11</v>
       </c>
     </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>13</v>
+      </c>
+      <c r="D212" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>9</v>
+      </c>
+      <c r="D216" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>9</v>
+      </c>
+      <c r="D217" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>26</v>
+      </c>
+      <c r="E218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13138,6 +13138,122 @@
         <v>8</v>
       </c>
     </row>
+    <row r="438" spans="1:9">
+      <c r="A438" t="s">
+        <v>14</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>2</v>
+      </c>
+      <c r="H438">
+        <v>4</v>
+      </c>
+      <c r="I438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" t="s">
+        <v>26</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>2</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>7</v>
+      </c>
+      <c r="I439">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" t="s">
+        <v>16</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>1</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>2</v>
+      </c>
+      <c r="I440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" t="s">
+        <v>15</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>4</v>
+      </c>
+      <c r="I441">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13145,7 +13261,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16874,6 +16990,40 @@
         <v>19</v>
       </c>
     </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13254,6 +13254,528 @@
         <v>2</v>
       </c>
     </row>
+    <row r="442" spans="1:9">
+      <c r="A442" t="s">
+        <v>13</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442">
+        <v>2</v>
+      </c>
+      <c r="G442">
+        <v>2</v>
+      </c>
+      <c r="H442">
+        <v>7</v>
+      </c>
+      <c r="I442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>2</v>
+      </c>
+      <c r="G443">
+        <v>2</v>
+      </c>
+      <c r="H443">
+        <v>2</v>
+      </c>
+      <c r="I443">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444" t="s">
+        <v>24</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>1</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>5</v>
+      </c>
+      <c r="I444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" t="s">
+        <v>17</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>7</v>
+      </c>
+      <c r="I445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" t="s">
+        <v>20</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>3</v>
+      </c>
+      <c r="I446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" t="s">
+        <v>22</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>3</v>
+      </c>
+      <c r="I447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" t="s">
+        <v>25</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>5</v>
+      </c>
+      <c r="I448">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>8</v>
+      </c>
+      <c r="I449">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>2</v>
+      </c>
+      <c r="G450">
+        <v>2</v>
+      </c>
+      <c r="H450">
+        <v>6</v>
+      </c>
+      <c r="I450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" t="s">
+        <v>23</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451">
+        <v>2</v>
+      </c>
+      <c r="G451">
+        <v>2</v>
+      </c>
+      <c r="H451">
+        <v>3</v>
+      </c>
+      <c r="I451">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" t="s">
+        <v>11</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>2</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>2</v>
+      </c>
+      <c r="I452">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" t="s">
+        <v>21</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>2</v>
+      </c>
+      <c r="H453">
+        <v>8</v>
+      </c>
+      <c r="I453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>2</v>
+      </c>
+      <c r="G454">
+        <v>3</v>
+      </c>
+      <c r="H454">
+        <v>5</v>
+      </c>
+      <c r="I454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" t="s">
+        <v>26</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455">
+        <v>3</v>
+      </c>
+      <c r="G455">
+        <v>2</v>
+      </c>
+      <c r="H455">
+        <v>3</v>
+      </c>
+      <c r="I455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" t="s">
+        <v>21</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>3</v>
+      </c>
+      <c r="H456">
+        <v>4</v>
+      </c>
+      <c r="I456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" t="s">
+        <v>25</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457">
+        <v>3</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>5</v>
+      </c>
+      <c r="I457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" t="s">
+        <v>16</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>3</v>
+      </c>
+      <c r="H458">
+        <v>11</v>
+      </c>
+      <c r="I458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="s">
+        <v>9</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459">
+        <v>3</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>3</v>
+      </c>
+      <c r="I459">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13261,7 +13783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17024,6 +17546,159 @@
         <v>15</v>
       </c>
     </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>24</v>
+      </c>
+      <c r="E223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>25</v>
+      </c>
+      <c r="E225" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <v>9</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>9</v>
+      </c>
+      <c r="D229" t="s">
+        <v>21</v>
+      </c>
+      <c r="E229" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>14</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I459"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13776,6 +13776,412 @@
         <v>11</v>
       </c>
     </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="s">
+        <v>15</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>3</v>
+      </c>
+      <c r="I460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="s">
+        <v>10</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>1</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+      <c r="H461">
+        <v>3</v>
+      </c>
+      <c r="I461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="s">
+        <v>17</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+      <c r="F462">
+        <v>2</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+      <c r="H462">
+        <v>3</v>
+      </c>
+      <c r="I462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="s">
+        <v>20</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463">
+        <v>2</v>
+      </c>
+      <c r="H463">
+        <v>5</v>
+      </c>
+      <c r="I463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>2</v>
+      </c>
+      <c r="G464">
+        <v>1</v>
+      </c>
+      <c r="H464">
+        <v>7</v>
+      </c>
+      <c r="I464">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="s">
+        <v>24</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465">
+        <v>2</v>
+      </c>
+      <c r="H465">
+        <v>7</v>
+      </c>
+      <c r="I465">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="s">
+        <v>18</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>1</v>
+      </c>
+      <c r="F466">
+        <v>2</v>
+      </c>
+      <c r="G466">
+        <v>2</v>
+      </c>
+      <c r="H466">
+        <v>10</v>
+      </c>
+      <c r="I466">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="s">
+        <v>14</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
+      <c r="F467">
+        <v>2</v>
+      </c>
+      <c r="G467">
+        <v>2</v>
+      </c>
+      <c r="H467">
+        <v>6</v>
+      </c>
+      <c r="I467">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="s">
+        <v>23</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>2</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>4</v>
+      </c>
+      <c r="I468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="s">
+        <v>11</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>2</v>
+      </c>
+      <c r="H469">
+        <v>5</v>
+      </c>
+      <c r="I469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="s">
+        <v>19</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>2</v>
+      </c>
+      <c r="G470">
+        <v>6</v>
+      </c>
+      <c r="H470">
+        <v>7</v>
+      </c>
+      <c r="I470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="s">
+        <v>13</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471">
+        <v>6</v>
+      </c>
+      <c r="G471">
+        <v>2</v>
+      </c>
+      <c r="H471">
+        <v>4</v>
+      </c>
+      <c r="I471">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>10</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="F472">
+        <v>2</v>
+      </c>
+      <c r="G472">
+        <v>1</v>
+      </c>
+      <c r="H472">
+        <v>5</v>
+      </c>
+      <c r="I472">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+      <c r="G473">
+        <v>2</v>
+      </c>
+      <c r="H473">
+        <v>5</v>
+      </c>
+      <c r="I473">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13783,7 +14189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17699,6 +18105,125 @@
         <v>9</v>
       </c>
     </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>14</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
+        <v>9</v>
+      </c>
+      <c r="D235" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>8</v>
+      </c>
+      <c r="C236">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I473"/>
+  <dimension ref="A1:I477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14182,6 +14182,122 @@
         <v>5</v>
       </c>
     </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>24</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
+      <c r="F474">
+        <v>2</v>
+      </c>
+      <c r="G474">
+        <v>5</v>
+      </c>
+      <c r="H474">
+        <v>5</v>
+      </c>
+      <c r="I474">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>18</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475">
+        <v>5</v>
+      </c>
+      <c r="G475">
+        <v>2</v>
+      </c>
+      <c r="H475">
+        <v>5</v>
+      </c>
+      <c r="I475">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>26</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476">
+        <v>7</v>
+      </c>
+      <c r="I476">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>12</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>8</v>
+      </c>
+      <c r="I477">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14189,7 +14305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18224,6 +18340,40 @@
         <v>16</v>
       </c>
     </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>10</v>
+      </c>
+      <c r="D238" t="s">
+        <v>24</v>
+      </c>
+      <c r="E238" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239">
+        <v>15</v>
+      </c>
+      <c r="D239" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I477"/>
+  <dimension ref="A1:I491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14298,6 +14298,412 @@
         <v>7</v>
       </c>
     </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>14</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>6</v>
+      </c>
+      <c r="I478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>15</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>4</v>
+      </c>
+      <c r="I479">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>20</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>2</v>
+      </c>
+      <c r="H480">
+        <v>6</v>
+      </c>
+      <c r="I480">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>19</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>2</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>6</v>
+      </c>
+      <c r="I481">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>17</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>3</v>
+      </c>
+      <c r="H482">
+        <v>12</v>
+      </c>
+      <c r="I482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>22</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>3</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+      <c r="H483">
+        <v>3</v>
+      </c>
+      <c r="I483">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>9</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
+      </c>
+      <c r="G484">
+        <v>2</v>
+      </c>
+      <c r="H484">
+        <v>9</v>
+      </c>
+      <c r="I484">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>21</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+      <c r="F485">
+        <v>2</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+      <c r="H485">
+        <v>3</v>
+      </c>
+      <c r="I485">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>25</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>4</v>
+      </c>
+      <c r="I486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>23</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>2</v>
+      </c>
+      <c r="H487">
+        <v>5</v>
+      </c>
+      <c r="I487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>11</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>2</v>
+      </c>
+      <c r="H488">
+        <v>5</v>
+      </c>
+      <c r="I488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>13</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>2</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>3</v>
+      </c>
+      <c r="I489">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>10</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490">
+        <v>3</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>4</v>
+      </c>
+      <c r="I490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <v>3</v>
+      </c>
+      <c r="H491">
+        <v>2</v>
+      </c>
+      <c r="I491">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14305,7 +14711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18374,6 +18780,125 @@
         <v>12</v>
       </c>
     </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>15</v>
+      </c>
+      <c r="D242" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I491"/>
+  <dimension ref="A1:I495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14704,6 +14704,122 @@
         <v>4</v>
       </c>
     </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>16</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>7</v>
+      </c>
+      <c r="I492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>20</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>4</v>
+      </c>
+      <c r="I493">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>13</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>1</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>17</v>
+      </c>
+      <c r="I494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>17</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>2</v>
+      </c>
+      <c r="I495">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14711,7 +14827,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18899,6 +19015,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s">
+        <v>16</v>
+      </c>
+      <c r="E247" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>19</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14820,6 +14820,760 @@
         <v>17</v>
       </c>
     </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>15</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>4</v>
+      </c>
+      <c r="G496">
+        <v>3</v>
+      </c>
+      <c r="H496">
+        <v>8</v>
+      </c>
+      <c r="I496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>24</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>3</v>
+      </c>
+      <c r="G497">
+        <v>4</v>
+      </c>
+      <c r="H497">
+        <v>5</v>
+      </c>
+      <c r="I497">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>19</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>2</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>5</v>
+      </c>
+      <c r="I498">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>14</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>2</v>
+      </c>
+      <c r="H499">
+        <v>7</v>
+      </c>
+      <c r="I499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>22</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>4</v>
+      </c>
+      <c r="I500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>25</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501">
+        <v>3</v>
+      </c>
+      <c r="I501">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>12</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+      <c r="H502">
+        <v>2</v>
+      </c>
+      <c r="I502">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>9</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>5</v>
+      </c>
+      <c r="I503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>18</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+      <c r="H504">
+        <v>6</v>
+      </c>
+      <c r="I504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>23</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>3</v>
+      </c>
+      <c r="I505">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>21</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+      <c r="G506">
+        <v>3</v>
+      </c>
+      <c r="H506">
+        <v>5</v>
+      </c>
+      <c r="I506">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>26</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>3</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>5</v>
+      </c>
+      <c r="I507">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>24</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>2</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+      <c r="H508">
+        <v>5</v>
+      </c>
+      <c r="I508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>16</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>2</v>
+      </c>
+      <c r="H509">
+        <v>2</v>
+      </c>
+      <c r="I509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>25</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>3</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510">
+        <v>5</v>
+      </c>
+      <c r="I510">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>12</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511">
+        <v>3</v>
+      </c>
+      <c r="H511">
+        <v>4</v>
+      </c>
+      <c r="I511">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>23</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>1</v>
+      </c>
+      <c r="G512">
+        <v>2</v>
+      </c>
+      <c r="H512">
+        <v>8</v>
+      </c>
+      <c r="I512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>22</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>2</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+      <c r="H513">
+        <v>4</v>
+      </c>
+      <c r="I513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>20</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>0</v>
+      </c>
+      <c r="F514">
+        <v>0</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>6</v>
+      </c>
+      <c r="I514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>21</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+      <c r="E515">
+        <v>0</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>7</v>
+      </c>
+      <c r="I515">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>17</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516">
+        <v>3</v>
+      </c>
+      <c r="I516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>19</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
+      <c r="F517">
+        <v>1</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>4</v>
+      </c>
+      <c r="I517">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>26</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518">
+        <v>4</v>
+      </c>
+      <c r="G518">
+        <v>3</v>
+      </c>
+      <c r="H518">
+        <v>10</v>
+      </c>
+      <c r="I518">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>15</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
+      <c r="F519">
+        <v>3</v>
+      </c>
+      <c r="G519">
+        <v>4</v>
+      </c>
+      <c r="H519">
+        <v>7</v>
+      </c>
+      <c r="I519">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520">
+        <v>3</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+      <c r="H520">
+        <v>2</v>
+      </c>
+      <c r="I520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>14</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>3</v>
+      </c>
+      <c r="H521">
+        <v>4</v>
+      </c>
+      <c r="I521">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14827,7 +15581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19049,6 +19803,227 @@
         <v>17</v>
       </c>
     </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>13</v>
+      </c>
+      <c r="D249" t="s">
+        <v>15</v>
+      </c>
+      <c r="E249" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>7</v>
+      </c>
+      <c r="D251" t="s">
+        <v>22</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>7</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>9</v>
+      </c>
+      <c r="D253" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>7</v>
+      </c>
+      <c r="D255" t="s">
+        <v>24</v>
+      </c>
+      <c r="E255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>9</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>17</v>
+      </c>
+      <c r="D260" t="s">
+        <v>26</v>
+      </c>
+      <c r="E260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>0</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frances.xlsx
+++ b/frances.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="29">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:I615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15574,6 +15574,2732 @@
         <v>2</v>
       </c>
     </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>21</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522">
+        <v>3</v>
+      </c>
+      <c r="H522">
+        <v>3</v>
+      </c>
+      <c r="I522">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>23</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523">
+        <v>3</v>
+      </c>
+      <c r="G523">
+        <v>0</v>
+      </c>
+      <c r="H523">
+        <v>7</v>
+      </c>
+      <c r="I523">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>16</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>4</v>
+      </c>
+      <c r="I524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>17</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>3</v>
+      </c>
+      <c r="I525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>20</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+      <c r="H526">
+        <v>4</v>
+      </c>
+      <c r="I526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" t="s">
+        <v>24</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>1</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>2</v>
+      </c>
+      <c r="I527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" t="s">
+        <v>12</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+      <c r="F528">
+        <v>1</v>
+      </c>
+      <c r="G528">
+        <v>2</v>
+      </c>
+      <c r="H528">
+        <v>8</v>
+      </c>
+      <c r="I528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>19</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>2</v>
+      </c>
+      <c r="G529">
+        <v>1</v>
+      </c>
+      <c r="H529">
+        <v>4</v>
+      </c>
+      <c r="I529">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>10</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>1</v>
+      </c>
+      <c r="G530">
+        <v>0</v>
+      </c>
+      <c r="H530">
+        <v>4</v>
+      </c>
+      <c r="I530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>25</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+      <c r="H531">
+        <v>4</v>
+      </c>
+      <c r="I531">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>15</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532">
+        <v>2</v>
+      </c>
+      <c r="H532">
+        <v>7</v>
+      </c>
+      <c r="I532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>18</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>2</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>4</v>
+      </c>
+      <c r="I533">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>22</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>2</v>
+      </c>
+      <c r="G534">
+        <v>2</v>
+      </c>
+      <c r="H534">
+        <v>7</v>
+      </c>
+      <c r="I534">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>11</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535">
+        <v>2</v>
+      </c>
+      <c r="G535">
+        <v>2</v>
+      </c>
+      <c r="H535">
+        <v>4</v>
+      </c>
+      <c r="I535">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>13</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536">
+        <v>4</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536">
+        <v>4</v>
+      </c>
+      <c r="I536">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>26</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+      <c r="E537">
+        <v>1</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+      <c r="G537">
+        <v>4</v>
+      </c>
+      <c r="H537">
+        <v>10</v>
+      </c>
+      <c r="I537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>14</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538">
+        <v>1</v>
+      </c>
+      <c r="E538">
+        <v>1</v>
+      </c>
+      <c r="F538">
+        <v>1</v>
+      </c>
+      <c r="G538">
+        <v>4</v>
+      </c>
+      <c r="H538">
+        <v>3</v>
+      </c>
+      <c r="I538">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>13</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539">
+        <v>1</v>
+      </c>
+      <c r="F539">
+        <v>4</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+      <c r="H539">
+        <v>6</v>
+      </c>
+      <c r="I539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>18</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>1</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>7</v>
+      </c>
+      <c r="I540">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>10</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+      <c r="H541">
+        <v>5</v>
+      </c>
+      <c r="I541">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>11</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542">
+        <v>2</v>
+      </c>
+      <c r="G542">
+        <v>2</v>
+      </c>
+      <c r="H542">
+        <v>3</v>
+      </c>
+      <c r="I542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>9</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543">
+        <v>2</v>
+      </c>
+      <c r="G543">
+        <v>2</v>
+      </c>
+      <c r="H543">
+        <v>2</v>
+      </c>
+      <c r="I543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>19</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+      <c r="H544">
+        <v>3</v>
+      </c>
+      <c r="I544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>21</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>1</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545">
+        <v>1</v>
+      </c>
+      <c r="H545">
+        <v>6</v>
+      </c>
+      <c r="I545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>13</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
+      <c r="F546">
+        <v>3</v>
+      </c>
+      <c r="G546">
+        <v>3</v>
+      </c>
+      <c r="H546">
+        <v>11</v>
+      </c>
+      <c r="I546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>20</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547">
+        <v>1</v>
+      </c>
+      <c r="F547">
+        <v>3</v>
+      </c>
+      <c r="G547">
+        <v>3</v>
+      </c>
+      <c r="H547">
+        <v>2</v>
+      </c>
+      <c r="I547">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" t="s">
+        <v>24</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>1</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
+      </c>
+      <c r="G548">
+        <v>2</v>
+      </c>
+      <c r="H548">
+        <v>2</v>
+      </c>
+      <c r="I548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" t="s">
+        <v>10</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>1</v>
+      </c>
+      <c r="F549">
+        <v>2</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+      <c r="H549">
+        <v>4</v>
+      </c>
+      <c r="I549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" t="s">
+        <v>17</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550">
+        <v>4</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550">
+        <v>5</v>
+      </c>
+      <c r="I550">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" t="s">
+        <v>12</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>1</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+      <c r="G551">
+        <v>4</v>
+      </c>
+      <c r="H551">
+        <v>5</v>
+      </c>
+      <c r="I551">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" t="s">
+        <v>14</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+      <c r="G552">
+        <v>2</v>
+      </c>
+      <c r="H552">
+        <v>5</v>
+      </c>
+      <c r="I552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" t="s">
+        <v>22</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>2</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>1</v>
+      </c>
+      <c r="I553">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" t="s">
+        <v>25</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>1</v>
+      </c>
+      <c r="G554">
+        <v>3</v>
+      </c>
+      <c r="H554">
+        <v>2</v>
+      </c>
+      <c r="I554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" t="s">
+        <v>9</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555">
+        <v>1</v>
+      </c>
+      <c r="F555">
+        <v>3</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555">
+        <v>3</v>
+      </c>
+      <c r="I555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" t="s">
+        <v>23</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>4</v>
+      </c>
+      <c r="G556">
+        <v>5</v>
+      </c>
+      <c r="H556">
+        <v>7</v>
+      </c>
+      <c r="I556">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" t="s">
+        <v>15</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>1</v>
+      </c>
+      <c r="F557">
+        <v>5</v>
+      </c>
+      <c r="G557">
+        <v>4</v>
+      </c>
+      <c r="H557">
+        <v>4</v>
+      </c>
+      <c r="I557">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" t="s">
+        <v>26</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558">
+        <v>3</v>
+      </c>
+      <c r="G558">
+        <v>2</v>
+      </c>
+      <c r="H558">
+        <v>3</v>
+      </c>
+      <c r="I558">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9">
+      <c r="A559" t="s">
+        <v>18</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559">
+        <v>2</v>
+      </c>
+      <c r="G559">
+        <v>3</v>
+      </c>
+      <c r="H559">
+        <v>3</v>
+      </c>
+      <c r="I559">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9">
+      <c r="A560" t="s">
+        <v>11</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560">
+        <v>2</v>
+      </c>
+      <c r="G560">
+        <v>1</v>
+      </c>
+      <c r="H560">
+        <v>3</v>
+      </c>
+      <c r="I560">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9">
+      <c r="A561" t="s">
+        <v>16</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561">
+        <v>1</v>
+      </c>
+      <c r="F561">
+        <v>1</v>
+      </c>
+      <c r="G561">
+        <v>2</v>
+      </c>
+      <c r="H561">
+        <v>11</v>
+      </c>
+      <c r="I561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9">
+      <c r="A562" t="s">
+        <v>22</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
+      </c>
+      <c r="G562">
+        <v>2</v>
+      </c>
+      <c r="H562">
+        <v>8</v>
+      </c>
+      <c r="I562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9">
+      <c r="A563" t="s">
+        <v>19</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>1</v>
+      </c>
+      <c r="F563">
+        <v>2</v>
+      </c>
+      <c r="G563">
+        <v>1</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+      <c r="I563">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9">
+      <c r="A564" t="s">
+        <v>16</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>2</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564">
+        <v>4</v>
+      </c>
+      <c r="I564">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9">
+      <c r="A565" t="s">
+        <v>14</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>2</v>
+      </c>
+      <c r="H565">
+        <v>4</v>
+      </c>
+      <c r="I565">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" t="s">
+        <v>20</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
+      <c r="F566">
+        <v>3</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566">
+        <v>3</v>
+      </c>
+      <c r="I566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9">
+      <c r="A567" t="s">
+        <v>25</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>1</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+      <c r="G567">
+        <v>3</v>
+      </c>
+      <c r="H567">
+        <v>2</v>
+      </c>
+      <c r="I567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9">
+      <c r="A568" t="s">
+        <v>18</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>4</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568">
+        <v>4</v>
+      </c>
+      <c r="I568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9">
+      <c r="A569" t="s">
+        <v>17</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>1</v>
+      </c>
+      <c r="G569">
+        <v>4</v>
+      </c>
+      <c r="H569">
+        <v>4</v>
+      </c>
+      <c r="I569">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9">
+      <c r="A570" t="s">
+        <v>24</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570">
+        <v>2</v>
+      </c>
+      <c r="G570">
+        <v>3</v>
+      </c>
+      <c r="H570">
+        <v>2</v>
+      </c>
+      <c r="I570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" t="s">
+        <v>23</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>3</v>
+      </c>
+      <c r="G571">
+        <v>2</v>
+      </c>
+      <c r="H571">
+        <v>5</v>
+      </c>
+      <c r="I571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9">
+      <c r="A572" t="s">
+        <v>15</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572">
+        <v>6</v>
+      </c>
+      <c r="I572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" t="s">
+        <v>21</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>0</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
+      <c r="I573">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9">
+      <c r="A574" t="s">
+        <v>10</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>3</v>
+      </c>
+      <c r="G574">
+        <v>4</v>
+      </c>
+      <c r="H574">
+        <v>4</v>
+      </c>
+      <c r="I574">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" t="s">
+        <v>26</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>1</v>
+      </c>
+      <c r="F575">
+        <v>4</v>
+      </c>
+      <c r="G575">
+        <v>3</v>
+      </c>
+      <c r="H575">
+        <v>4</v>
+      </c>
+      <c r="I575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" t="s">
+        <v>15</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
+      <c r="F576">
+        <v>1</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+      <c r="H576">
+        <v>3</v>
+      </c>
+      <c r="I576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9">
+      <c r="A577" t="s">
+        <v>12</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>1</v>
+      </c>
+      <c r="F577">
+        <v>1</v>
+      </c>
+      <c r="G577">
+        <v>1</v>
+      </c>
+      <c r="H577">
+        <v>4</v>
+      </c>
+      <c r="I577">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9">
+      <c r="A578" t="s">
+        <v>9</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578">
+        <v>0</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+      <c r="F578">
+        <v>1</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>6</v>
+      </c>
+      <c r="I578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9">
+      <c r="A579" t="s">
+        <v>20</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>0</v>
+      </c>
+      <c r="G579">
+        <v>1</v>
+      </c>
+      <c r="H579">
+        <v>1</v>
+      </c>
+      <c r="I579">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9">
+      <c r="A580" t="s">
+        <v>25</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="E580">
+        <v>1</v>
+      </c>
+      <c r="F580">
+        <v>2</v>
+      </c>
+      <c r="G580">
+        <v>1</v>
+      </c>
+      <c r="H580">
+        <v>3</v>
+      </c>
+      <c r="I580">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" t="s">
+        <v>24</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581">
+        <v>1</v>
+      </c>
+      <c r="G581">
+        <v>2</v>
+      </c>
+      <c r="H581">
+        <v>6</v>
+      </c>
+      <c r="I581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9">
+      <c r="A582" t="s">
+        <v>21</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582">
+        <v>1</v>
+      </c>
+      <c r="G582">
+        <v>2</v>
+      </c>
+      <c r="H582">
+        <v>5</v>
+      </c>
+      <c r="I582">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9">
+      <c r="A583" t="s">
+        <v>10</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583">
+        <v>2</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583">
+        <v>4</v>
+      </c>
+      <c r="I583">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9">
+      <c r="A584" t="s">
+        <v>23</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584">
+        <v>1</v>
+      </c>
+      <c r="G584">
+        <v>1</v>
+      </c>
+      <c r="H584">
+        <v>4</v>
+      </c>
+      <c r="I584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9">
+      <c r="A585" t="s">
+        <v>16</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="F585">
+        <v>1</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+      <c r="H585">
+        <v>3</v>
+      </c>
+      <c r="I585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9">
+      <c r="A586" t="s">
+        <v>17</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+      <c r="F586">
+        <v>0</v>
+      </c>
+      <c r="G586">
+        <v>1</v>
+      </c>
+      <c r="H586">
+        <v>7</v>
+      </c>
+      <c r="I586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9">
+      <c r="A587" t="s">
+        <v>26</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587">
+        <v>0</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+      <c r="F587">
+        <v>1</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>2</v>
+      </c>
+      <c r="I587">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9">
+      <c r="A588" t="s">
+        <v>19</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>0</v>
+      </c>
+      <c r="G588">
+        <v>2</v>
+      </c>
+      <c r="H588">
+        <v>3</v>
+      </c>
+      <c r="I588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9">
+      <c r="A589" t="s">
+        <v>18</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>2</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>3</v>
+      </c>
+      <c r="I589">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9">
+      <c r="A590" t="s">
+        <v>11</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590">
+        <v>3</v>
+      </c>
+      <c r="G590">
+        <v>1</v>
+      </c>
+      <c r="H590">
+        <v>8</v>
+      </c>
+      <c r="I590">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9">
+      <c r="A591" t="s">
+        <v>14</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591">
+        <v>1</v>
+      </c>
+      <c r="F591">
+        <v>1</v>
+      </c>
+      <c r="G591">
+        <v>3</v>
+      </c>
+      <c r="H591">
+        <v>5</v>
+      </c>
+      <c r="I591">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9">
+      <c r="A592" t="s">
+        <v>13</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592">
+        <v>1</v>
+      </c>
+      <c r="F592">
+        <v>1</v>
+      </c>
+      <c r="G592">
+        <v>3</v>
+      </c>
+      <c r="H592">
+        <v>4</v>
+      </c>
+      <c r="I592">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593" t="s">
+        <v>22</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
+        <v>1</v>
+      </c>
+      <c r="F593">
+        <v>3</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+      <c r="H593">
+        <v>6</v>
+      </c>
+      <c r="I593">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" t="s">
+        <v>12</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>1</v>
+      </c>
+      <c r="G594">
+        <v>0</v>
+      </c>
+      <c r="H594">
+        <v>3</v>
+      </c>
+      <c r="I594">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" t="s">
+        <v>11</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+      <c r="F595">
+        <v>0</v>
+      </c>
+      <c r="G595">
+        <v>1</v>
+      </c>
+      <c r="H595">
+        <v>10</v>
+      </c>
+      <c r="I595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" t="s">
+        <v>9</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596">
+        <v>1</v>
+      </c>
+      <c r="G596">
+        <v>2</v>
+      </c>
+      <c r="H596">
+        <v>7</v>
+      </c>
+      <c r="I596">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" t="s">
+        <v>13</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597">
+        <v>2</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597">
+        <v>2</v>
+      </c>
+      <c r="I597">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" t="s">
+        <v>14</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>0</v>
+      </c>
+      <c r="F598">
+        <v>5</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598">
+        <v>9</v>
+      </c>
+      <c r="I598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" t="s">
+        <v>17</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="F599">
+        <v>0</v>
+      </c>
+      <c r="G599">
+        <v>5</v>
+      </c>
+      <c r="H599">
+        <v>2</v>
+      </c>
+      <c r="I599">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" t="s">
+        <v>22</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="F600">
+        <v>0</v>
+      </c>
+      <c r="G600">
+        <v>3</v>
+      </c>
+      <c r="H600">
+        <v>6</v>
+      </c>
+      <c r="I600">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" t="s">
+        <v>15</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>3</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>2</v>
+      </c>
+      <c r="I601">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" t="s">
+        <v>12</v>
+      </c>
+      <c r="B602">
+        <v>1</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602">
+        <v>2</v>
+      </c>
+      <c r="G602">
+        <v>1</v>
+      </c>
+      <c r="H602">
+        <v>2</v>
+      </c>
+      <c r="I602">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" t="s">
+        <v>23</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+      <c r="F603">
+        <v>1</v>
+      </c>
+      <c r="G603">
+        <v>2</v>
+      </c>
+      <c r="H603">
+        <v>4</v>
+      </c>
+      <c r="I603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" t="s">
+        <v>16</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604">
+        <v>2</v>
+      </c>
+      <c r="G604">
+        <v>2</v>
+      </c>
+      <c r="H604">
+        <v>1</v>
+      </c>
+      <c r="I604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="A605" t="s">
+        <v>19</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605">
+        <v>2</v>
+      </c>
+      <c r="G605">
+        <v>2</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+      <c r="I605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="A606" t="s">
+        <v>10</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606">
+        <v>2</v>
+      </c>
+      <c r="G606">
+        <v>2</v>
+      </c>
+      <c r="H606">
+        <v>3</v>
+      </c>
+      <c r="I606">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="A607" t="s">
+        <v>9</v>
+      </c>
+      <c r="B607">
+        <v>0</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>1</v>
+      </c>
+      <c r="F607">
+        <v>2</v>
+      </c>
+      <c r="G607">
+        <v>2</v>
+      </c>
+      <c r="H607">
+        <v>5</v>
+      </c>
+      <c r="I607">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="A608" t="s">
+        <v>26</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608">
+        <v>2</v>
+      </c>
+      <c r="G608">
+        <v>1</v>
+      </c>
+      <c r="H608">
+        <v>7</v>
+      </c>
+      <c r="I608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9">
+      <c r="A609" t="s">
+        <v>25</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609">
+        <v>1</v>
+      </c>
+      <c r="G609">
+        <v>2</v>
+      </c>
+      <c r="H609">
+        <v>2</v>
+      </c>
+      <c r="I609">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="A610" t="s">
+        <v>18</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="E610">
+        <v>0</v>
+      </c>
+      <c r="F610">
+        <v>4</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>2</v>
+      </c>
+      <c r="I610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" t="s">
+        <v>21</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611">
+        <v>0</v>
+      </c>
+      <c r="G611">
+        <v>4</v>
+      </c>
+      <c r="H611">
+        <v>2</v>
+      </c>
+      <c r="I611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" t="s">
+        <v>20</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="F612">
+        <v>1</v>
+      </c>
+      <c r="G612">
+        <v>2</v>
+      </c>
+      <c r="H612">
+        <v>5</v>
+      </c>
+      <c r="I612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613" t="s">
+        <v>11</v>
+      </c>
+      <c r="B613">
+        <v>0</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="E613">
+        <v>1</v>
+      </c>
+      <c r="F613">
+        <v>2</v>
+      </c>
+      <c r="G613">
+        <v>1</v>
+      </c>
+      <c r="H613">
+        <v>3</v>
+      </c>
+      <c r="I613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614" t="s">
+        <v>24</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614">
+        <v>0</v>
+      </c>
+      <c r="G614">
+        <v>2</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+      <c r="I614">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615" t="s">
+        <v>13</v>
+      </c>
+      <c r="B615">
+        <v>0</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>2</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
+      </c>
+      <c r="H615">
+        <v>10</v>
+      </c>
+      <c r="I615">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15581,7 +18307,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20024,6 +22750,805 @@
         <v>14</v>
       </c>
     </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>7</v>
+      </c>
+      <c r="D263" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>12</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>5</v>
+      </c>
+      <c r="C269">
+        <v>14</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>5</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+      <c r="D270" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>12</v>
+      </c>
+      <c r="D271" t="s">
+        <v>18</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>4</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>6</v>
+      </c>
+      <c r="C274">
+        <v>13</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>24</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>5</v>
+      </c>
+      <c r="D278" t="s">
+        <v>25</v>
+      </c>
+      <c r="E278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>9</v>
+      </c>
+      <c r="C279">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>26</v>
+      </c>
+      <c r="E280" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>14</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>22</v>
+      </c>
+      <c r="E282" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284">
+        <v>5</v>
+      </c>
+      <c r="D284" t="s">
+        <v>20</v>
+      </c>
+      <c r="E284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>18</v>
+      </c>
+      <c r="E285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>5</v>
+      </c>
+      <c r="C286">
+        <v>7</v>
+      </c>
+      <c r="D286" t="s">
+        <v>24</v>
+      </c>
+      <c r="E286" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <v>8</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>7</v>
+      </c>
+      <c r="D290" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>9</v>
+      </c>
+      <c r="D291" t="s">
+        <v>25</v>
+      </c>
+      <c r="E291" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>9</v>
+      </c>
+      <c r="D292" t="s">
+        <v>21</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>7</v>
+      </c>
+      <c r="D293" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>13</v>
+      </c>
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>13</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>9</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>14</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>8</v>
+      </c>
+      <c r="D301" t="s">
+        <v>22</v>
+      </c>
+      <c r="E301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>16</v>
+      </c>
+      <c r="E303" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>1</v>
+      </c>
+      <c r="B304">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>8</v>
+      </c>
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>9</v>
+      </c>
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+      <c r="E305" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306" t="s">
+        <v>18</v>
+      </c>
+      <c r="E306" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>8</v>
+      </c>
+      <c r="D307" t="s">
+        <v>20</v>
+      </c>
+      <c r="E307" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s">
+        <v>24</v>
+      </c>
+      <c r="E308" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
